--- a/Code/Results/Cases/Case_2_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.599648572183185</v>
+        <v>1.245944912280777</v>
       </c>
       <c r="C2">
-        <v>0.5110897842702116</v>
+        <v>0.2115104654614868</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05970205469685785</v>
+        <v>0.1764712512158786</v>
       </c>
       <c r="F2">
-        <v>1.186004126174097</v>
+        <v>2.144470902196545</v>
       </c>
       <c r="G2">
-        <v>0.7674445964998711</v>
+        <v>1.093480589025646</v>
       </c>
       <c r="H2">
-        <v>0.524904241246773</v>
+        <v>1.078445673552736</v>
       </c>
       <c r="I2">
-        <v>0.4888164127117136</v>
+        <v>1.055118632153878</v>
       </c>
       <c r="J2">
-        <v>0.05330750925842409</v>
+        <v>0.06192150132802254</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2681175732422503</v>
+        <v>0.4369407038987703</v>
       </c>
       <c r="M2">
-        <v>0.4861806598559539</v>
+        <v>0.3454865264307969</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.257034310302572</v>
+        <v>1.147694658956254</v>
       </c>
       <c r="C3">
-        <v>0.4524008461597475</v>
+        <v>0.1926777248806957</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05990727537399376</v>
+        <v>0.1769490190079068</v>
       </c>
       <c r="F3">
-        <v>1.132894422761865</v>
+        <v>2.14837885819442</v>
       </c>
       <c r="G3">
-        <v>0.7244957347947434</v>
+        <v>1.094245503618083</v>
       </c>
       <c r="H3">
-        <v>0.5143551323272817</v>
+        <v>1.085045734096568</v>
       </c>
       <c r="I3">
-        <v>0.4914702869651144</v>
+        <v>1.065753648113947</v>
       </c>
       <c r="J3">
-        <v>0.05269614864991468</v>
+        <v>0.06162406455125691</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2444485600092747</v>
+        <v>0.4322979595700076</v>
       </c>
       <c r="M3">
-        <v>0.4246631466522643</v>
+        <v>0.3289107360576722</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.047714880441333</v>
+        <v>1.087633681460147</v>
       </c>
       <c r="C4">
-        <v>0.4164848224488367</v>
+        <v>0.1810279432754101</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06006118305443797</v>
+        <v>0.1772649399390898</v>
       </c>
       <c r="F4">
-        <v>1.102759809225887</v>
+        <v>2.152007338053309</v>
       </c>
       <c r="G4">
-        <v>0.7004268271624312</v>
+        <v>1.095599167357662</v>
       </c>
       <c r="H4">
-        <v>0.5091818046968797</v>
+        <v>1.089726594786811</v>
       </c>
       <c r="I4">
-        <v>0.494554840190002</v>
+        <v>1.072956982468977</v>
       </c>
       <c r="J4">
-        <v>0.05234774028298261</v>
+        <v>0.06145274349237084</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2301153911443166</v>
+        <v>0.4295851261328352</v>
       </c>
       <c r="M4">
-        <v>0.387138452132362</v>
+        <v>0.3188395921069684</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.962629772722835</v>
+        <v>1.063226100100792</v>
       </c>
       <c r="C5">
-        <v>0.4018682811525593</v>
+        <v>0.1762588323453542</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06013075919899347</v>
+        <v>0.1773993697526692</v>
       </c>
       <c r="F5">
-        <v>1.091067093178225</v>
+        <v>2.153794839951729</v>
       </c>
       <c r="G5">
-        <v>0.6911583057066792</v>
+        <v>1.096372438982414</v>
       </c>
       <c r="H5">
-        <v>0.5073836536825382</v>
+        <v>1.091791930362902</v>
       </c>
       <c r="I5">
-        <v>0.4961591263518805</v>
+        <v>1.076061466409257</v>
       </c>
       <c r="J5">
-        <v>0.05221231990369546</v>
+        <v>0.06138579498266594</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2243210849467943</v>
+        <v>0.4285144327189485</v>
       </c>
       <c r="M5">
-        <v>0.3719001742356838</v>
+        <v>0.3147625227603257</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.948513026977594</v>
+        <v>1.059177364776815</v>
       </c>
       <c r="C6">
-        <v>0.3994421038370319</v>
+        <v>0.1754656126184102</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06014272208728766</v>
+        <v>0.1774220357688701</v>
       </c>
       <c r="F6">
-        <v>1.08916001949008</v>
+        <v>2.154110303143369</v>
       </c>
       <c r="G6">
-        <v>0.6896507777262997</v>
+        <v>1.09651420787516</v>
       </c>
       <c r="H6">
-        <v>0.5071032957207962</v>
+        <v>1.0921444064019</v>
       </c>
       <c r="I6">
-        <v>0.4964459710404547</v>
+        <v>1.076587167113217</v>
       </c>
       <c r="J6">
-        <v>0.05219022357589864</v>
+        <v>0.06137485203392501</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2233616559353138</v>
+        <v>0.4283387516522126</v>
       </c>
       <c r="M6">
-        <v>0.3693728441576383</v>
+        <v>0.3140871663987923</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.046566587758093</v>
+        <v>1.0873042364762</v>
       </c>
       <c r="C7">
-        <v>0.4162876328566085</v>
+        <v>0.1809637133633544</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06006209381539884</v>
+        <v>0.1772667298507393</v>
       </c>
       <c r="F7">
-        <v>1.102599783593391</v>
+        <v>2.152030194569718</v>
       </c>
       <c r="G7">
-        <v>0.7002996930832524</v>
+        <v>1.095608699409283</v>
       </c>
       <c r="H7">
-        <v>0.5091563217163468</v>
+        <v>1.089753809737985</v>
       </c>
       <c r="I7">
-        <v>0.4945750936689564</v>
+        <v>1.072998166434434</v>
       </c>
       <c r="J7">
-        <v>0.05234588767514481</v>
+        <v>0.06145182896572621</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2300370631595712</v>
+        <v>0.4295705452488789</v>
       </c>
       <c r="M7">
-        <v>0.3869327386756964</v>
+        <v>0.3187844976752672</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.481267156469926</v>
+        <v>1.212013831236334</v>
       </c>
       <c r="C8">
-        <v>0.49082255215896</v>
+        <v>0.2050348612247319</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05976692364841352</v>
+        <v>0.1766313097216337</v>
       </c>
       <c r="F8">
-        <v>1.167156512428349</v>
+        <v>2.145563183576456</v>
       </c>
       <c r="G8">
-        <v>0.7521337844229237</v>
+        <v>1.093560464190588</v>
       </c>
       <c r="H8">
-        <v>0.5209851940761041</v>
+        <v>1.080590847966619</v>
       </c>
       <c r="I8">
-        <v>0.4894179303101538</v>
+        <v>1.058645665025729</v>
       </c>
       <c r="J8">
-        <v>0.05309097181529054</v>
+        <v>0.06181661208349354</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2599127783006026</v>
+        <v>0.4353113662216117</v>
       </c>
       <c r="M8">
-        <v>0.4649125602942732</v>
+        <v>0.3397492321350839</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.344455400346703</v>
+        <v>1.458637477956245</v>
       </c>
       <c r="C9">
-        <v>0.6384494845476922</v>
+        <v>0.2515551763940493</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05941750330820117</v>
+        <v>0.1755637075962051</v>
       </c>
       <c r="F9">
-        <v>1.315083511114025</v>
+        <v>2.142642890364613</v>
       </c>
       <c r="G9">
-        <v>0.8739420157025535</v>
+        <v>1.096588802629697</v>
       </c>
       <c r="H9">
-        <v>0.5553937670942588</v>
+        <v>1.067616598355556</v>
       </c>
       <c r="I9">
-        <v>0.4917488468777904</v>
+        <v>1.035855520175552</v>
       </c>
       <c r="J9">
-        <v>0.05477771751711202</v>
+        <v>0.06262072777690619</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3202629195222499</v>
+        <v>0.4476570851095829</v>
       </c>
       <c r="M9">
-        <v>0.6202312883339971</v>
+        <v>0.3816978725572184</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.988926586986565</v>
+        <v>1.641066206448613</v>
       </c>
       <c r="C10">
-        <v>0.748601119406743</v>
+        <v>0.2853238347464355</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05931331618019975</v>
+        <v>0.1748872879883203</v>
       </c>
       <c r="F10">
-        <v>1.439317266874994</v>
+        <v>2.146465728603076</v>
       </c>
       <c r="G10">
-        <v>0.9785900308923914</v>
+        <v>1.103153328215086</v>
       </c>
       <c r="H10">
-        <v>0.5888171666567104</v>
+        <v>1.06114140867345</v>
       </c>
       <c r="I10">
-        <v>0.5023992465830887</v>
+        <v>1.022393023876496</v>
       </c>
       <c r="J10">
-        <v>0.05617335198557782</v>
+        <v>0.0632644999742098</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.365951150077052</v>
+        <v>0.45738456243933</v>
       </c>
       <c r="M10">
-        <v>0.7364794192988668</v>
+        <v>0.4130207625520654</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.285270602981825</v>
+        <v>1.724321643113115</v>
       </c>
       <c r="C11">
-        <v>0.7992776176045311</v>
+        <v>0.3005987398458103</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05930234772933307</v>
+        <v>0.1746028304280056</v>
       </c>
       <c r="F11">
-        <v>1.499833177495802</v>
+        <v>2.149504835361469</v>
       </c>
       <c r="G11">
-        <v>1.030192195612955</v>
+        <v>1.107091798851428</v>
       </c>
       <c r="H11">
-        <v>0.6061124390469246</v>
+        <v>1.05886221754011</v>
       </c>
       <c r="I11">
-        <v>0.509516672330605</v>
+        <v>1.016984774780845</v>
       </c>
       <c r="J11">
-        <v>0.05684718562649493</v>
+        <v>0.06356864982774368</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3870957475702141</v>
+        <v>0.4619513168712786</v>
       </c>
       <c r="M11">
-        <v>0.789992988328585</v>
+        <v>0.4273784253054984</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.398028494315213</v>
+        <v>1.755886049553339</v>
       </c>
       <c r="C12">
-        <v>0.8185674946977031</v>
+        <v>0.3063705569882416</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05930375356325968</v>
+        <v>0.1744984431146808</v>
       </c>
       <c r="F12">
-        <v>1.523381343138709</v>
+        <v>2.150842882386186</v>
       </c>
       <c r="G12">
-        <v>1.050372453943893</v>
+        <v>1.108720877202657</v>
       </c>
       <c r="H12">
-        <v>0.6129921393308848</v>
+        <v>1.058095189191164</v>
       </c>
       <c r="I12">
-        <v>0.5125692972570235</v>
+        <v>1.01504006114201</v>
       </c>
       <c r="J12">
-        <v>0.05710842944104755</v>
+        <v>0.06368542776117181</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3951605773483067</v>
+        <v>0.4637008741530195</v>
       </c>
       <c r="M12">
-        <v>0.8103630691433636</v>
+        <v>0.4328307600802361</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.373718693592878</v>
+        <v>1.74908644495639</v>
       </c>
       <c r="C13">
-        <v>0.8144083277647667</v>
+        <v>0.3051280469550193</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05930319795765726</v>
+        <v>0.1745207768607946</v>
       </c>
       <c r="F13">
-        <v>1.518280752627234</v>
+        <v>2.150546380059183</v>
       </c>
       <c r="G13">
-        <v>1.045996726363953</v>
+        <v>1.108363891639513</v>
       </c>
       <c r="H13">
-        <v>0.6114952761942618</v>
+        <v>1.058256106963881</v>
       </c>
       <c r="I13">
-        <v>0.5118954449760551</v>
+        <v>1.015454291726691</v>
       </c>
       <c r="J13">
-        <v>0.05705188734345157</v>
+        <v>0.0636602065824512</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.393420999536076</v>
+        <v>0.4633231784272596</v>
       </c>
       <c r="M13">
-        <v>0.805971057795638</v>
+        <v>0.4316558210385892</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.294535959921973</v>
+        <v>1.726917723006068</v>
       </c>
       <c r="C14">
-        <v>0.8008624970390485</v>
+        <v>0.3010738403885966</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05930234997618289</v>
+        <v>0.1745941757425218</v>
       </c>
       <c r="F14">
-        <v>1.501757487625483</v>
+        <v>2.149611164009585</v>
       </c>
       <c r="G14">
-        <v>1.031839224562376</v>
+        <v>1.107223060886611</v>
       </c>
       <c r="H14">
-        <v>0.6066716348960455</v>
+        <v>1.058797187349342</v>
       </c>
       <c r="I14">
-        <v>0.5097604647724907</v>
+        <v>1.016822710405918</v>
       </c>
       <c r="J14">
-        <v>0.0568685535537945</v>
+        <v>0.06357822521204426</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3877580510080918</v>
+        <v>0.4620948494664106</v>
       </c>
       <c r="M14">
-        <v>0.7916666398082768</v>
+        <v>0.4278266848732386</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.246107019109559</v>
+        <v>1.713343575845897</v>
       </c>
       <c r="C15">
-        <v>0.7925788494640358</v>
+        <v>0.2985888994261359</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05930256482158924</v>
+        <v>0.174639568046727</v>
       </c>
       <c r="F15">
-        <v>1.491720600608275</v>
+        <v>2.149062704098199</v>
       </c>
       <c r="G15">
-        <v>1.023252676634954</v>
+        <v>1.106542218967917</v>
       </c>
       <c r="H15">
-        <v>0.6037609679585927</v>
+        <v>1.059141130151758</v>
       </c>
       <c r="I15">
-        <v>0.5085002316250637</v>
+        <v>1.017674365232779</v>
       </c>
       <c r="J15">
-        <v>0.05675706301472871</v>
+        <v>0.06352821739174885</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3842970482352115</v>
+        <v>0.4613450922748541</v>
       </c>
       <c r="M15">
-        <v>0.7829189935773186</v>
+        <v>0.4254832269645803</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.969630519378484</v>
+        <v>1.635630558848277</v>
       </c>
       <c r="C16">
-        <v>0.7453022264233198</v>
+        <v>0.2843238404733484</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0593147924929065</v>
+        <v>0.1749063447099477</v>
       </c>
       <c r="F16">
-        <v>1.435447659753194</v>
+        <v>2.146293298394014</v>
       </c>
       <c r="G16">
-        <v>0.9753035459410029</v>
+        <v>1.102915164102228</v>
       </c>
       <c r="H16">
-        <v>0.5877314269144165</v>
+        <v>1.061303788041073</v>
       </c>
       <c r="I16">
-        <v>0.5019823878528129</v>
+        <v>1.022760899446183</v>
       </c>
       <c r="J16">
-        <v>0.05613013850524595</v>
+        <v>0.06324484852163792</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3645770575155751</v>
+        <v>0.4570889526424082</v>
       </c>
       <c r="M16">
-        <v>0.7329961282933795</v>
+        <v>0.4120846231695339</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.800889785172501</v>
+        <v>1.588023903917133</v>
       </c>
       <c r="C17">
-        <v>0.7164573335691387</v>
+        <v>0.2755505000855862</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05933183901892569</v>
+        <v>0.175075949194845</v>
       </c>
       <c r="F17">
-        <v>1.401989648884751</v>
+        <v>2.144927519240895</v>
       </c>
       <c r="G17">
-        <v>0.9469563258193574</v>
+        <v>1.100934496375928</v>
       </c>
       <c r="H17">
-        <v>0.5784535824772661</v>
+        <v>1.062801349739942</v>
       </c>
       <c r="I17">
-        <v>0.4985868497675909</v>
+        <v>1.026064916591636</v>
       </c>
       <c r="J17">
-        <v>0.05575583696604269</v>
+        <v>0.06307388850490625</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3525759585762813</v>
+        <v>0.454514130940197</v>
       </c>
       <c r="M17">
-        <v>0.7025419743781498</v>
+        <v>0.4038926922418185</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.704127620106988</v>
+        <v>1.56066707715479</v>
       </c>
       <c r="C18">
-        <v>0.699918784615619</v>
+        <v>0.270496152920856</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05934505080161401</v>
+        <v>0.1751756902714803</v>
       </c>
       <c r="F18">
-        <v>1.383118428621117</v>
+        <v>2.144264313529078</v>
       </c>
       <c r="G18">
-        <v>0.9310237662562884</v>
+        <v>1.099884853602177</v>
       </c>
       <c r="H18">
-        <v>0.5733120698689049</v>
+        <v>1.063725419371977</v>
       </c>
       <c r="I18">
-        <v>0.4968457300546376</v>
+        <v>1.028032664961884</v>
       </c>
       <c r="J18">
-        <v>0.05554418297932173</v>
+        <v>0.06297662116266523</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.345706817276124</v>
+        <v>0.4530465055041901</v>
       </c>
       <c r="M18">
-        <v>0.6850840443488195</v>
+        <v>0.3991911575917086</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.671413545969926</v>
+        <v>1.551408898699435</v>
       </c>
       <c r="C19">
-        <v>0.6943275714956485</v>
+        <v>0.2687834374596321</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05935010014377529</v>
+        <v>0.1752098372456432</v>
       </c>
       <c r="F19">
-        <v>1.376791364858192</v>
+        <v>2.144060770236237</v>
       </c>
       <c r="G19">
-        <v>0.9256912921692333</v>
+        <v>1.099544826512613</v>
       </c>
       <c r="H19">
-        <v>0.5716038496599651</v>
+        <v>1.064049057486855</v>
       </c>
       <c r="I19">
-        <v>0.4962917243816634</v>
+        <v>1.028710470845773</v>
       </c>
       <c r="J19">
-        <v>0.05547313126659503</v>
+        <v>0.06294387156719594</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3433866375428494</v>
+        <v>0.452551889057716</v>
       </c>
       <c r="M19">
-        <v>0.679182706501507</v>
+        <v>0.3976010659404494</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.818821620371864</v>
+        <v>1.593089107213473</v>
       </c>
       <c r="C20">
-        <v>0.7195223865232947</v>
+        <v>0.2764852810545051</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05932966957577079</v>
+        <v>0.1750576680403615</v>
       </c>
       <c r="F20">
-        <v>1.405512318457227</v>
+        <v>2.145060243707945</v>
       </c>
       <c r="G20">
-        <v>0.949934983874158</v>
+        <v>1.101136064808145</v>
       </c>
       <c r="H20">
-        <v>0.579420851618849</v>
+        <v>1.062635439686787</v>
       </c>
       <c r="I20">
-        <v>0.4989261665660152</v>
+        <v>1.025706223924836</v>
       </c>
       <c r="J20">
-        <v>0.05579530260823873</v>
+        <v>0.06309197748984019</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3538499799064283</v>
+        <v>0.4547868451269608</v>
       </c>
       <c r="M20">
-        <v>0.7057777142473327</v>
+        <v>0.4047636784224622</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.317778523639106</v>
+        <v>1.733428208345288</v>
       </c>
       <c r="C21">
-        <v>0.8048383739460689</v>
+        <v>0.3022649972341753</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05930244539452989</v>
+        <v>0.1745725264201754</v>
       </c>
       <c r="F21">
-        <v>1.506593138222428</v>
+        <v>2.149880776967208</v>
       </c>
       <c r="G21">
-        <v>1.035979718517254</v>
+        <v>1.107554408486891</v>
       </c>
       <c r="H21">
-        <v>0.6080792384626079</v>
+        <v>1.058635650316631</v>
       </c>
       <c r="I21">
-        <v>0.5103776016341754</v>
+        <v>1.016417967268467</v>
       </c>
       <c r="J21">
-        <v>0.05692223407619679</v>
+        <v>0.06360226178964012</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3894197767305627</v>
+        <v>0.4624550916764179</v>
       </c>
       <c r="M21">
-        <v>0.7958652016458316</v>
+        <v>0.4289509789016535</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.647060911034487</v>
+        <v>1.825365295399251</v>
       </c>
       <c r="C22">
-        <v>0.8611887458926617</v>
+        <v>0.3190409190157482</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05931723844509573</v>
+        <v>0.174274865813401</v>
       </c>
       <c r="F22">
-        <v>1.576369842297808</v>
+        <v>2.154122556026152</v>
       </c>
       <c r="G22">
-        <v>1.095977975025249</v>
+        <v>1.112551925326343</v>
       </c>
       <c r="H22">
-        <v>0.6287506434068462</v>
+        <v>1.056581525098338</v>
       </c>
       <c r="I22">
-        <v>0.5199614128416741</v>
+        <v>1.010949660039472</v>
       </c>
       <c r="J22">
-        <v>0.05769444205025209</v>
+        <v>0.06394509602888832</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4130069240363525</v>
+        <v>0.4675845625497033</v>
       </c>
       <c r="M22">
-        <v>0.8553663279684969</v>
+        <v>0.4448484313541101</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.470995730467791</v>
+        <v>1.776277215782329</v>
       </c>
       <c r="C23">
-        <v>0.8310528861684361</v>
+        <v>0.3100939376503504</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05930624377146554</v>
+        <v>0.1744319612213978</v>
       </c>
       <c r="F23">
-        <v>1.538768700031298</v>
+        <v>2.151758702429206</v>
       </c>
       <c r="G23">
-        <v>1.063588360063648</v>
+        <v>1.109810961245458</v>
       </c>
       <c r="H23">
-        <v>0.6175296953672955</v>
+        <v>1.057626539084481</v>
       </c>
       <c r="I23">
-        <v>0.5146433385312932</v>
+        <v>1.013812997899976</v>
       </c>
       <c r="J23">
-        <v>0.0572788599438816</v>
+        <v>0.0637612717517051</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4003847816097306</v>
+        <v>0.4648361341162257</v>
       </c>
       <c r="M23">
-        <v>0.8235471148089104</v>
+        <v>0.4363555352269941</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.810713867857373</v>
+        <v>1.590799088622646</v>
       </c>
       <c r="C24">
-        <v>0.7181365379976512</v>
+        <v>0.2760626990945241</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0593306397786364</v>
+        <v>0.1750659259940983</v>
       </c>
       <c r="F24">
-        <v>1.403918589254644</v>
+        <v>2.144999858968063</v>
       </c>
       <c r="G24">
-        <v>0.9485872016361157</v>
+        <v>1.101044658323104</v>
       </c>
       <c r="H24">
-        <v>0.578982952030799</v>
+        <v>1.062710251071366</v>
       </c>
       <c r="I24">
-        <v>0.4987721064400503</v>
+        <v>1.025868176378999</v>
       </c>
       <c r="J24">
-        <v>0.05577744920984173</v>
+        <v>0.06308379628053373</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.353273900460124</v>
+        <v>0.4546635115564897</v>
       </c>
       <c r="M24">
-        <v>0.7043146798447211</v>
+        <v>0.404369880274011</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.109423744013554</v>
+        <v>1.391700627520208</v>
       </c>
       <c r="C25">
-        <v>0.5982778319827275</v>
+        <v>0.2390426555337228</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05948625612336844</v>
+        <v>0.1758335051149293</v>
       </c>
       <c r="F25">
-        <v>1.272530888629532</v>
+        <v>2.14238606390694</v>
       </c>
       <c r="G25">
-        <v>0.8385500699570088</v>
+        <v>1.095010715996452</v>
       </c>
       <c r="H25">
-        <v>0.5447566383199529</v>
+        <v>1.070590531867268</v>
       </c>
       <c r="I25">
-        <v>0.489653283760795</v>
+        <v>1.041445823662123</v>
       </c>
       <c r="J25">
-        <v>0.05429545882746112</v>
+        <v>0.0623938079811559</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3037208355820411</v>
+        <v>0.4442014093590814</v>
       </c>
       <c r="M25">
-        <v>0.5778905244017309</v>
+        <v>0.3702607929957438</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.245944912280777</v>
+        <v>2.599648572183014</v>
       </c>
       <c r="C2">
-        <v>0.2115104654614868</v>
+        <v>0.5110897842700979</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1764712512158786</v>
+        <v>0.05970205469686851</v>
       </c>
       <c r="F2">
-        <v>2.144470902196545</v>
+        <v>1.186004126174112</v>
       </c>
       <c r="G2">
-        <v>1.093480589025646</v>
+        <v>0.7674445964998569</v>
       </c>
       <c r="H2">
-        <v>1.078445673552736</v>
+        <v>0.5249042412466594</v>
       </c>
       <c r="I2">
-        <v>1.055118632153878</v>
+        <v>0.4888164127116994</v>
       </c>
       <c r="J2">
-        <v>0.06192150132802254</v>
+        <v>0.05330750925840277</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4369407038987703</v>
+        <v>0.2681175732421934</v>
       </c>
       <c r="M2">
-        <v>0.3454865264307969</v>
+        <v>0.486180659855961</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.147694658956254</v>
+        <v>2.257034310302345</v>
       </c>
       <c r="C3">
-        <v>0.1926777248806957</v>
+        <v>0.4524008461593496</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1769490190079068</v>
+        <v>0.05990727537398932</v>
       </c>
       <c r="F3">
-        <v>2.14837885819442</v>
+        <v>1.132894422761865</v>
       </c>
       <c r="G3">
-        <v>1.094245503618083</v>
+        <v>0.7244957347947718</v>
       </c>
       <c r="H3">
-        <v>1.085045734096568</v>
+        <v>0.5143551323272675</v>
       </c>
       <c r="I3">
-        <v>1.065753648113947</v>
+        <v>0.4914702869651322</v>
       </c>
       <c r="J3">
-        <v>0.06162406455125691</v>
+        <v>0.05269614864990757</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4322979595700076</v>
+        <v>0.2444485600093174</v>
       </c>
       <c r="M3">
-        <v>0.3289107360576722</v>
+        <v>0.4246631466522643</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.087633681460147</v>
+        <v>2.047714880441276</v>
       </c>
       <c r="C4">
-        <v>0.1810279432754101</v>
+        <v>0.4164848224486377</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1772649399390898</v>
+        <v>0.06006118305444819</v>
       </c>
       <c r="F4">
-        <v>2.152007338053309</v>
+        <v>1.102759809225901</v>
       </c>
       <c r="G4">
-        <v>1.095599167357662</v>
+        <v>0.7004268271624028</v>
       </c>
       <c r="H4">
-        <v>1.089726594786811</v>
+        <v>0.5091818046967518</v>
       </c>
       <c r="I4">
-        <v>1.072956982468977</v>
+        <v>0.4945548401900126</v>
       </c>
       <c r="J4">
-        <v>0.06145274349237084</v>
+        <v>0.05234774028292932</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4295851261328352</v>
+        <v>0.2301153911443166</v>
       </c>
       <c r="M4">
-        <v>0.3188395921069684</v>
+        <v>0.3871384521323478</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063226100100792</v>
+        <v>1.962629772722835</v>
       </c>
       <c r="C5">
-        <v>0.1762588323453542</v>
+        <v>0.4018682811525593</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1773993697526692</v>
+        <v>0.06013075919899125</v>
       </c>
       <c r="F5">
-        <v>2.153794839951729</v>
+        <v>1.091067093178225</v>
       </c>
       <c r="G5">
-        <v>1.096372438982414</v>
+        <v>0.691158305706665</v>
       </c>
       <c r="H5">
-        <v>1.091791930362902</v>
+        <v>0.5073836536825382</v>
       </c>
       <c r="I5">
-        <v>1.076061466409257</v>
+        <v>0.4961591263518628</v>
       </c>
       <c r="J5">
-        <v>0.06138579498266594</v>
+        <v>0.05221231990369191</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4285144327189485</v>
+        <v>0.2243210849468227</v>
       </c>
       <c r="M5">
-        <v>0.3147625227603257</v>
+        <v>0.3719001742356767</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.059177364776815</v>
+        <v>1.948513026977707</v>
       </c>
       <c r="C6">
-        <v>0.1754656126184102</v>
+        <v>0.3994421038369751</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1774220357688701</v>
+        <v>0.06014272208727212</v>
       </c>
       <c r="F6">
-        <v>2.154110303143369</v>
+        <v>1.089160019490095</v>
       </c>
       <c r="G6">
-        <v>1.09651420787516</v>
+        <v>0.6896507777262855</v>
       </c>
       <c r="H6">
-        <v>1.0921444064019</v>
+        <v>0.5071032957209098</v>
       </c>
       <c r="I6">
-        <v>1.076587167113217</v>
+        <v>0.4964459710404761</v>
       </c>
       <c r="J6">
-        <v>0.06137485203392501</v>
+        <v>0.05219022357599101</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4283387516522126</v>
+        <v>0.2233616559353919</v>
       </c>
       <c r="M6">
-        <v>0.3140871663987923</v>
+        <v>0.3693728441576312</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0873042364762</v>
+        <v>2.04656658775798</v>
       </c>
       <c r="C7">
-        <v>0.1809637133633544</v>
+        <v>0.4162876328566085</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1772667298507393</v>
+        <v>0.06006209381536332</v>
       </c>
       <c r="F7">
-        <v>2.152030194569718</v>
+        <v>1.102599783593362</v>
       </c>
       <c r="G7">
-        <v>1.095608699409283</v>
+        <v>0.7002996930832097</v>
       </c>
       <c r="H7">
-        <v>1.089753809737985</v>
+        <v>0.5091563217163468</v>
       </c>
       <c r="I7">
-        <v>1.072998166434434</v>
+        <v>0.4945750936689777</v>
       </c>
       <c r="J7">
-        <v>0.06145182896572621</v>
+        <v>0.05234588767518034</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4295705452488789</v>
+        <v>0.2300370631596778</v>
       </c>
       <c r="M7">
-        <v>0.3187844976752672</v>
+        <v>0.3869327386757035</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.212013831236334</v>
+        <v>2.481267156469926</v>
       </c>
       <c r="C8">
-        <v>0.2050348612247319</v>
+        <v>0.4908225521589316</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1766313097216337</v>
+        <v>0.05976692364843839</v>
       </c>
       <c r="F8">
-        <v>2.145563183576456</v>
+        <v>1.167156512428349</v>
       </c>
       <c r="G8">
-        <v>1.093560464190588</v>
+        <v>0.7521337844228668</v>
       </c>
       <c r="H8">
-        <v>1.080590847966619</v>
+        <v>0.5209851940761041</v>
       </c>
       <c r="I8">
-        <v>1.058645665025729</v>
+        <v>0.4894179303101609</v>
       </c>
       <c r="J8">
-        <v>0.06181661208349354</v>
+        <v>0.05309097181528344</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4353113662216117</v>
+        <v>0.2599127783006168</v>
       </c>
       <c r="M8">
-        <v>0.3397492321350839</v>
+        <v>0.4649125602942661</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.458637477956245</v>
+        <v>3.344455400346703</v>
       </c>
       <c r="C9">
-        <v>0.2515551763940493</v>
+        <v>0.6384494845474933</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1755637075962051</v>
+        <v>0.05941750330821449</v>
       </c>
       <c r="F9">
-        <v>2.142642890364613</v>
+        <v>1.31508351111404</v>
       </c>
       <c r="G9">
-        <v>1.096588802629697</v>
+        <v>0.8739420157025961</v>
       </c>
       <c r="H9">
-        <v>1.067616598355556</v>
+        <v>0.5553937670943725</v>
       </c>
       <c r="I9">
-        <v>1.035855520175552</v>
+        <v>0.4917488468778117</v>
       </c>
       <c r="J9">
-        <v>0.06262072777690619</v>
+        <v>0.05477771751720439</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4476570851095829</v>
+        <v>0.320262919522321</v>
       </c>
       <c r="M9">
-        <v>0.3816978725572184</v>
+        <v>0.6202312883340113</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.641066206448613</v>
+        <v>3.988926586986565</v>
       </c>
       <c r="C10">
-        <v>0.2853238347464355</v>
+        <v>0.7486011194066577</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1748872879883203</v>
+        <v>0.05931331618020064</v>
       </c>
       <c r="F10">
-        <v>2.146465728603076</v>
+        <v>1.439317266874994</v>
       </c>
       <c r="G10">
-        <v>1.103153328215086</v>
+        <v>0.9785900308923914</v>
       </c>
       <c r="H10">
-        <v>1.06114140867345</v>
+        <v>0.5888171666567104</v>
       </c>
       <c r="I10">
-        <v>1.022393023876496</v>
+        <v>0.5023992465830958</v>
       </c>
       <c r="J10">
-        <v>0.0632644999742098</v>
+        <v>0.05617335198559203</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.45738456243933</v>
+        <v>0.3659511500768815</v>
       </c>
       <c r="M10">
-        <v>0.4130207625520654</v>
+        <v>0.7364794192988597</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.724321643113115</v>
+        <v>4.285270602981996</v>
       </c>
       <c r="C11">
-        <v>0.3005987398458103</v>
+        <v>0.7992776176046448</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1746028304280056</v>
+        <v>0.05930234772931353</v>
       </c>
       <c r="F11">
-        <v>2.149504835361469</v>
+        <v>1.49983317749583</v>
       </c>
       <c r="G11">
-        <v>1.107091798851428</v>
+        <v>1.030192195612983</v>
       </c>
       <c r="H11">
-        <v>1.05886221754011</v>
+        <v>0.6061124390470241</v>
       </c>
       <c r="I11">
-        <v>1.016984774780845</v>
+        <v>0.5095166723306122</v>
       </c>
       <c r="J11">
-        <v>0.06356864982774368</v>
+        <v>0.05684718562648428</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4619513168712786</v>
+        <v>0.3870957475701857</v>
       </c>
       <c r="M11">
-        <v>0.4273784253054984</v>
+        <v>0.7899929883285708</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.755886049553339</v>
+        <v>4.398028494315383</v>
       </c>
       <c r="C12">
-        <v>0.3063705569882416</v>
+        <v>0.8185674946979304</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1744984431146808</v>
+        <v>0.05930375356325435</v>
       </c>
       <c r="F12">
-        <v>2.150842882386186</v>
+        <v>1.523381343138709</v>
       </c>
       <c r="G12">
-        <v>1.108720877202657</v>
+        <v>1.050372453943879</v>
       </c>
       <c r="H12">
-        <v>1.058095189191164</v>
+        <v>0.6129921393308706</v>
       </c>
       <c r="I12">
-        <v>1.01504006114201</v>
+        <v>0.5125692972570448</v>
       </c>
       <c r="J12">
-        <v>0.06368542776117181</v>
+        <v>0.05710842944103334</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4637008741530195</v>
+        <v>0.3951605773482783</v>
       </c>
       <c r="M12">
-        <v>0.4328307600802361</v>
+        <v>0.8103630691433565</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.74908644495639</v>
+        <v>4.373718693592991</v>
       </c>
       <c r="C13">
-        <v>0.3051280469550193</v>
+        <v>0.8144083277646814</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1745207768607946</v>
+        <v>0.05930319795765904</v>
       </c>
       <c r="F13">
-        <v>2.150546380059183</v>
+        <v>1.518280752627248</v>
       </c>
       <c r="G13">
-        <v>1.108363891639513</v>
+        <v>1.04599672636401</v>
       </c>
       <c r="H13">
-        <v>1.058256106963881</v>
+        <v>0.6114952761942618</v>
       </c>
       <c r="I13">
-        <v>1.015454291726691</v>
+        <v>0.5118954449760338</v>
       </c>
       <c r="J13">
-        <v>0.0636602065824512</v>
+        <v>0.05705188734345512</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4633231784272596</v>
+        <v>0.393420999536005</v>
       </c>
       <c r="M13">
-        <v>0.4316558210385892</v>
+        <v>0.805971057795638</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.726917723006068</v>
+        <v>4.294535959921802</v>
       </c>
       <c r="C14">
-        <v>0.3010738403885966</v>
+        <v>0.8008624970392759</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1745941757425218</v>
+        <v>0.05930234997618555</v>
       </c>
       <c r="F14">
-        <v>2.149611164009585</v>
+        <v>1.501757487625483</v>
       </c>
       <c r="G14">
-        <v>1.107223060886611</v>
+        <v>1.031839224562333</v>
       </c>
       <c r="H14">
-        <v>1.058797187349342</v>
+        <v>0.6066716348960313</v>
       </c>
       <c r="I14">
-        <v>1.016822710405918</v>
+        <v>0.5097604647724765</v>
       </c>
       <c r="J14">
-        <v>0.06357822521204426</v>
+        <v>0.05686855355377318</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4620948494664106</v>
+        <v>0.3877580510082055</v>
       </c>
       <c r="M14">
-        <v>0.4278266848732386</v>
+        <v>0.7916666398082768</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713343575845897</v>
+        <v>4.246107019109786</v>
       </c>
       <c r="C15">
-        <v>0.2985888994261359</v>
+        <v>0.7925788494643484</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.174639568046727</v>
+        <v>0.05930256482159724</v>
       </c>
       <c r="F15">
-        <v>2.149062704098199</v>
+        <v>1.491720600608275</v>
       </c>
       <c r="G15">
-        <v>1.106542218967917</v>
+        <v>1.023252676634954</v>
       </c>
       <c r="H15">
-        <v>1.059141130151758</v>
+        <v>0.6037609679586069</v>
       </c>
       <c r="I15">
-        <v>1.017674365232779</v>
+        <v>0.5085002316250495</v>
       </c>
       <c r="J15">
-        <v>0.06352821739174885</v>
+        <v>0.05675706301479977</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4613450922748541</v>
+        <v>0.3842970482352115</v>
       </c>
       <c r="M15">
-        <v>0.4254832269645803</v>
+        <v>0.7829189935773471</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.635630558848277</v>
+        <v>3.969630519378711</v>
       </c>
       <c r="C16">
-        <v>0.2843238404733484</v>
+        <v>0.7453022264235472</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1749063447099477</v>
+        <v>0.05931479249289051</v>
       </c>
       <c r="F16">
-        <v>2.146293298394014</v>
+        <v>1.435447659753194</v>
       </c>
       <c r="G16">
-        <v>1.102915164102228</v>
+        <v>0.9753035459409745</v>
       </c>
       <c r="H16">
-        <v>1.061303788041073</v>
+        <v>0.5877314269144165</v>
       </c>
       <c r="I16">
-        <v>1.022760899446183</v>
+        <v>0.5019823878528129</v>
       </c>
       <c r="J16">
-        <v>0.06324484852163792</v>
+        <v>0.05613013850521398</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4570889526424082</v>
+        <v>0.3645770575155751</v>
       </c>
       <c r="M16">
-        <v>0.4120846231695339</v>
+        <v>0.7329961282933937</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.588023903917133</v>
+        <v>3.800889785172501</v>
       </c>
       <c r="C17">
-        <v>0.2755505000855862</v>
+        <v>0.7164573335689397</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.175075949194845</v>
+        <v>0.05933183901892924</v>
       </c>
       <c r="F17">
-        <v>2.144927519240895</v>
+        <v>1.401989648884765</v>
       </c>
       <c r="G17">
-        <v>1.100934496375928</v>
+        <v>0.9469563258194</v>
       </c>
       <c r="H17">
-        <v>1.062801349739942</v>
+        <v>0.5784535824772803</v>
       </c>
       <c r="I17">
-        <v>1.026064916591636</v>
+        <v>0.4985868497675625</v>
       </c>
       <c r="J17">
-        <v>0.06307388850490625</v>
+        <v>0.0557558369660498</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.454514130940197</v>
+        <v>0.3525759585762813</v>
       </c>
       <c r="M17">
-        <v>0.4038926922418185</v>
+        <v>0.7025419743781498</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.56066707715479</v>
+        <v>3.704127620107158</v>
       </c>
       <c r="C18">
-        <v>0.270496152920856</v>
+        <v>0.6999187846152495</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1751756902714803</v>
+        <v>0.05934505080159891</v>
       </c>
       <c r="F18">
-        <v>2.144264313529078</v>
+        <v>1.383118428621131</v>
       </c>
       <c r="G18">
-        <v>1.099884853602177</v>
+        <v>0.9310237662562315</v>
       </c>
       <c r="H18">
-        <v>1.063725419371977</v>
+        <v>0.5733120698690186</v>
       </c>
       <c r="I18">
-        <v>1.028032664961884</v>
+        <v>0.4968457300546305</v>
       </c>
       <c r="J18">
-        <v>0.06297662116266523</v>
+        <v>0.05554418297930752</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4530465055041901</v>
+        <v>0.3457068172761524</v>
       </c>
       <c r="M18">
-        <v>0.3991911575917086</v>
+        <v>0.6850840443488124</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.551408898699435</v>
+        <v>3.67141354596987</v>
       </c>
       <c r="C19">
-        <v>0.2687834374596321</v>
+        <v>0.6943275714954495</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1752098372456432</v>
+        <v>0.05935010014375486</v>
       </c>
       <c r="F19">
-        <v>2.144060770236237</v>
+        <v>1.376791364858192</v>
       </c>
       <c r="G19">
-        <v>1.099544826512613</v>
+        <v>0.9256912921691622</v>
       </c>
       <c r="H19">
-        <v>1.064049057486855</v>
+        <v>0.5716038496599651</v>
       </c>
       <c r="I19">
-        <v>1.028710470845773</v>
+        <v>0.4962917243816705</v>
       </c>
       <c r="J19">
-        <v>0.06294387156719594</v>
+        <v>0.05547313126654174</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.452551889057716</v>
+        <v>0.3433866375429204</v>
       </c>
       <c r="M19">
-        <v>0.3976010659404494</v>
+        <v>0.6791827065014857</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.593089107213473</v>
+        <v>3.81882162037175</v>
       </c>
       <c r="C20">
-        <v>0.2764852810545051</v>
+        <v>0.719522386523181</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1750576680403615</v>
+        <v>0.05932966957579566</v>
       </c>
       <c r="F20">
-        <v>2.145060243707945</v>
+        <v>1.405512318457255</v>
       </c>
       <c r="G20">
-        <v>1.101136064808145</v>
+        <v>0.9499349838741011</v>
       </c>
       <c r="H20">
-        <v>1.062635439686787</v>
+        <v>0.5794208516188633</v>
       </c>
       <c r="I20">
-        <v>1.025706223924836</v>
+        <v>0.4989261665660152</v>
       </c>
       <c r="J20">
-        <v>0.06309197748984019</v>
+        <v>0.05579530260810728</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4547868451269608</v>
+        <v>0.3538499799063999</v>
       </c>
       <c r="M20">
-        <v>0.4047636784224622</v>
+        <v>0.7057777142473398</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.733428208345288</v>
+        <v>4.317778523639049</v>
       </c>
       <c r="C21">
-        <v>0.3022649972341753</v>
+        <v>0.8048383739460405</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1745725264201754</v>
+        <v>0.05930244539451923</v>
       </c>
       <c r="F21">
-        <v>2.149880776967208</v>
+        <v>1.506593138222428</v>
       </c>
       <c r="G21">
-        <v>1.107554408486891</v>
+        <v>1.035979718517297</v>
       </c>
       <c r="H21">
-        <v>1.058635650316631</v>
+        <v>0.6080792384627216</v>
       </c>
       <c r="I21">
-        <v>1.016417967268467</v>
+        <v>0.5103776016341683</v>
       </c>
       <c r="J21">
-        <v>0.06360226178964012</v>
+        <v>0.05692223407625718</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4624550916764179</v>
+        <v>0.3894197767306053</v>
       </c>
       <c r="M21">
-        <v>0.4289509789016535</v>
+        <v>0.7958652016458174</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.825365295399251</v>
+        <v>4.647060911034544</v>
       </c>
       <c r="C22">
-        <v>0.3190409190157482</v>
+        <v>0.861188745892548</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.174274865813401</v>
+        <v>0.05931723844512238</v>
       </c>
       <c r="F22">
-        <v>2.154122556026152</v>
+        <v>1.576369842297808</v>
       </c>
       <c r="G22">
-        <v>1.112551925326343</v>
+        <v>1.095977975025164</v>
       </c>
       <c r="H22">
-        <v>1.056581525098338</v>
+        <v>0.6287506434068177</v>
       </c>
       <c r="I22">
-        <v>1.010949660039472</v>
+        <v>0.5199614128416599</v>
       </c>
       <c r="J22">
-        <v>0.06394509602888832</v>
+        <v>0.0576944420503267</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4675845625497033</v>
+        <v>0.4130069240363241</v>
       </c>
       <c r="M22">
-        <v>0.4448484313541101</v>
+        <v>0.8553663279684969</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.776277215782329</v>
+        <v>4.470995730467905</v>
       </c>
       <c r="C23">
-        <v>0.3100939376503504</v>
+        <v>0.8310528861685782</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1744319612213978</v>
+        <v>0.05930624377148686</v>
       </c>
       <c r="F23">
-        <v>2.151758702429206</v>
+        <v>1.538768700031284</v>
       </c>
       <c r="G23">
-        <v>1.109810961245458</v>
+        <v>1.063588360063633</v>
       </c>
       <c r="H23">
-        <v>1.057626539084481</v>
+        <v>0.6175296953672813</v>
       </c>
       <c r="I23">
-        <v>1.013812997899976</v>
+        <v>0.5146433385312932</v>
       </c>
       <c r="J23">
-        <v>0.0637612717517051</v>
+        <v>0.05727885994393134</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4648361341162257</v>
+        <v>0.4003847816098443</v>
       </c>
       <c r="M23">
-        <v>0.4363555352269941</v>
+        <v>0.8235471148089033</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.590799088622646</v>
+        <v>3.810713867857316</v>
       </c>
       <c r="C24">
-        <v>0.2760626990945241</v>
+        <v>0.7181365379975375</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1750659259940983</v>
+        <v>0.0593306397786364</v>
       </c>
       <c r="F24">
-        <v>2.144999858968063</v>
+        <v>1.403918589254687</v>
       </c>
       <c r="G24">
-        <v>1.101044658323104</v>
+        <v>0.9485872016361299</v>
       </c>
       <c r="H24">
-        <v>1.062710251071366</v>
+        <v>0.5789829520307848</v>
       </c>
       <c r="I24">
-        <v>1.025868176378999</v>
+        <v>0.4987721064400645</v>
       </c>
       <c r="J24">
-        <v>0.06308379628053373</v>
+        <v>0.05577744920987371</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4546635115564897</v>
+        <v>0.3532739004601666</v>
       </c>
       <c r="M24">
-        <v>0.404369880274011</v>
+        <v>0.7043146798447282</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.391700627520208</v>
+        <v>3.109423744013611</v>
       </c>
       <c r="C25">
-        <v>0.2390426555337228</v>
+        <v>0.5982778319828412</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1758335051149293</v>
+        <v>0.05948625612335423</v>
       </c>
       <c r="F25">
-        <v>2.14238606390694</v>
+        <v>1.272530888629532</v>
       </c>
       <c r="G25">
-        <v>1.095010715996452</v>
+        <v>0.8385500699570088</v>
       </c>
       <c r="H25">
-        <v>1.070590531867268</v>
+        <v>0.5447566383199387</v>
       </c>
       <c r="I25">
-        <v>1.041445823662123</v>
+        <v>0.4896532837608021</v>
       </c>
       <c r="J25">
-        <v>0.0623938079811559</v>
+        <v>0.05429545882746112</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4442014093590814</v>
+        <v>0.3037208355820837</v>
       </c>
       <c r="M25">
-        <v>0.3702607929957438</v>
+        <v>0.577890524401738</v>
       </c>
       <c r="N25">
         <v>0</v>
